--- a/tweets_xbox.xlsx
+++ b/tweets_xbox.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5e8b8fa1213029a4/Documentos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lior Lerner\Documents\P1-Cdados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7813862-E278-46F1-A2DA-D7D704075482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694CCE0D-3155-42D9-8CD7-72849EE4DE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2614,7 +2614,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2636,6 +2636,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2677,7 +2685,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2686,6 +2694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2705,7 +2714,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3027,21 +3036,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A496" workbookViewId="0">
-      <selection activeCell="B503" sqref="B503"/>
+    <sheetView tabSelected="1" topLeftCell="B494" workbookViewId="0">
+      <selection activeCell="B513" sqref="B513"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="255.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3049,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3057,15 +3066,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <f>B261</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3073,23 +3083,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3097,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3105,7 +3115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3113,7 +3123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3121,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3129,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3137,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3145,7 +3155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3153,15 +3163,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3169,23 +3179,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3193,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3201,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -3209,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -3217,15 +3227,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -3233,15 +3243,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -3249,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -3257,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3265,12 +3275,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3278,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3286,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3294,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3302,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3310,7 +3323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3318,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3326,31 +3339,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3358,15 +3371,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3374,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3382,15 +3395,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3398,7 +3411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3406,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3414,15 +3427,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3430,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3438,7 +3451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3446,7 +3459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3454,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3462,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3470,7 +3483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3478,7 +3491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -3486,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -3494,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3502,15 +3515,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3518,15 +3531,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -3534,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -3542,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -3550,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -3558,23 +3571,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -3582,23 +3595,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -3606,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -3614,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -3622,15 +3635,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -3638,7 +3651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -3646,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -3654,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -3662,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -3670,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -3678,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -3686,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -3694,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -3702,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -3710,7 +3723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -3718,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -3726,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -3734,15 +3747,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -3750,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -3758,7 +3771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -3766,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -3774,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -3782,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -3790,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -3798,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -3806,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -3814,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -3822,15 +3835,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -3838,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -3846,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -3854,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -3862,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -3870,7 +3883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -3878,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -3886,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -3894,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -3902,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -3910,7 +3923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -3918,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -3926,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -3934,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -3942,7 +3955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -3950,15 +3963,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
       <c r="B116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -3966,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -3974,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -3982,7 +3995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -3990,15 +4003,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
       <c r="B121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -4006,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -4014,7 +4027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -4022,15 +4035,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
       <c r="B125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -4038,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -4046,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -4054,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -4062,7 +4075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -4070,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -4078,7 +4091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -4086,7 +4099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -4094,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -4102,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -4110,15 +4123,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
       <c r="B136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -4126,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -4134,15 +4147,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
       <c r="B139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -4150,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -4158,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -4166,23 +4179,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
       <c r="B143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
       <c r="B144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -4190,15 +4203,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
       <c r="B146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -4206,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -4214,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -4222,7 +4235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -4230,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -4238,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -4246,15 +4259,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
       <c r="B153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -4262,7 +4275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -4270,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -4278,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -4286,7 +4299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -4294,15 +4307,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
       <c r="B159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -4310,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -4318,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -4326,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -4334,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -4342,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -4350,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -4358,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -4366,7 +4379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -4374,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -4382,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -4390,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -4398,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -4406,7 +4419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -4414,7 +4427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -4422,7 +4435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -4430,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -4438,7 +4451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -4446,15 +4459,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
       <c r="B178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -4462,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -4470,15 +4483,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
       <c r="B181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -4486,7 +4499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -4494,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -4502,7 +4515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -4510,7 +4523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -4518,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -4526,7 +4539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -4534,15 +4547,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
       <c r="B189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -4550,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -4558,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -4566,15 +4579,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
       <c r="B193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -4582,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -4590,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -4598,7 +4611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -4606,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -4614,7 +4627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -4622,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -4630,7 +4643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -4638,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -4646,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -4654,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -4662,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -4670,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -4678,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -4686,7 +4699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -4694,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -4702,7 +4715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -4710,7 +4723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -4718,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -4726,7 +4739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -4734,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -4742,15 +4755,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
       <c r="B215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -4758,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -4766,7 +4779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -4774,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -4782,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -4790,7 +4803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -4798,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -4806,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -4814,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -4822,15 +4835,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
       <c r="B225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -4838,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -4846,15 +4859,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
       <c r="B228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -4862,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -4870,15 +4883,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
       <c r="B231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -4886,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -4894,7 +4907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -4902,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -4910,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -4918,7 +4931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -4926,7 +4939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -4934,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -4942,7 +4955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -4950,7 +4963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -4958,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -4966,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -4974,7 +4987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -4982,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -4990,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -4998,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -5006,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -5014,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -5022,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -5030,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -5038,7 +5051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -5046,7 +5059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -5054,15 +5067,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
       <c r="B254">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -5070,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -5078,23 +5091,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
       <c r="B257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
       <c r="B258">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -5102,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -5110,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -5118,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -5126,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -5134,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -5142,7 +5155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -5150,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -5158,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -5166,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -5174,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -5182,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -5190,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -5198,15 +5211,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
       <c r="B272">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -5214,7 +5227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -5222,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -5230,23 +5243,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
       <c r="B276">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
       <c r="B277">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -5254,7 +5267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -5262,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -5270,7 +5283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -5278,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -5286,7 +5299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -5294,7 +5307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -5302,7 +5315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -5310,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -5318,7 +5331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -5326,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -5334,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -5342,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -5350,7 +5363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -5358,7 +5371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -5366,7 +5379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -5374,15 +5387,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
       <c r="B294">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -5390,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -5398,7 +5411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -5406,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -5414,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -5422,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -5430,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -5438,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -5446,7 +5459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>302</v>
       </c>
@@ -5454,7 +5467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>303</v>
       </c>
@@ -5462,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -5470,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>305</v>
       </c>
@@ -5478,7 +5491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>306</v>
       </c>
@@ -5486,7 +5499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>307</v>
       </c>
@@ -5494,15 +5507,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>308</v>
       </c>
       <c r="B309">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>309</v>
       </c>
@@ -5510,7 +5523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>310</v>
       </c>
@@ -5518,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -5526,7 +5539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>312</v>
       </c>
@@ -5534,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>313</v>
       </c>
@@ -5542,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>314</v>
       </c>
@@ -5550,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>315</v>
       </c>
@@ -5558,7 +5571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>316</v>
       </c>
@@ -5566,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>317</v>
       </c>
@@ -5574,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>318</v>
       </c>
@@ -5582,7 +5595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>319</v>
       </c>
@@ -5590,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>320</v>
       </c>
@@ -5598,7 +5611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>321</v>
       </c>
@@ -5606,7 +5619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>322</v>
       </c>
@@ -5614,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>323</v>
       </c>
@@ -5622,7 +5635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>324</v>
       </c>
@@ -5630,7 +5643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>325</v>
       </c>
@@ -5638,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>326</v>
       </c>
@@ -5646,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>327</v>
       </c>
@@ -5654,7 +5667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>328</v>
       </c>
@@ -5662,7 +5675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>329</v>
       </c>
@@ -5670,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>330</v>
       </c>
@@ -5678,7 +5691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>331</v>
       </c>
@@ -5686,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>332</v>
       </c>
@@ -5694,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>333</v>
       </c>
@@ -5702,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>334</v>
       </c>
@@ -5710,7 +5723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>335</v>
       </c>
@@ -5718,7 +5731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>336</v>
       </c>
@@ -5726,15 +5739,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>337</v>
       </c>
       <c r="B338">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>338</v>
       </c>
@@ -5742,15 +5755,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>339</v>
       </c>
       <c r="B340">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>340</v>
       </c>
@@ -5758,15 +5771,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>341</v>
       </c>
       <c r="B342">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>342</v>
       </c>
@@ -5774,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>343</v>
       </c>
@@ -5782,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>344</v>
       </c>
@@ -5790,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>345</v>
       </c>
@@ -5798,7 +5811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>346</v>
       </c>
@@ -5806,7 +5819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>347</v>
       </c>
@@ -5814,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>348</v>
       </c>
@@ -5822,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>349</v>
       </c>
@@ -5830,7 +5843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>350</v>
       </c>
@@ -5838,7 +5851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>351</v>
       </c>
@@ -5846,15 +5859,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>352</v>
       </c>
       <c r="B353">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>353</v>
       </c>
@@ -5862,15 +5875,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>354</v>
       </c>
       <c r="B355">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>355</v>
       </c>
@@ -5878,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>356</v>
       </c>
@@ -5886,15 +5899,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>357</v>
       </c>
       <c r="B358">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>358</v>
       </c>
@@ -5902,7 +5915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>359</v>
       </c>
@@ -5910,7 +5923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>360</v>
       </c>
@@ -5918,7 +5931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>361</v>
       </c>
@@ -5926,7 +5939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>362</v>
       </c>
@@ -5934,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>363</v>
       </c>
@@ -5942,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>364</v>
       </c>
@@ -5950,7 +5963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>365</v>
       </c>
@@ -5958,7 +5971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>366</v>
       </c>
@@ -5966,7 +5979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>367</v>
       </c>
@@ -5974,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>368</v>
       </c>
@@ -5982,15 +5995,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>369</v>
       </c>
       <c r="B370">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>370</v>
       </c>
@@ -5998,7 +6011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>371</v>
       </c>
@@ -6006,7 +6019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>372</v>
       </c>
@@ -6014,7 +6027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>373</v>
       </c>
@@ -6022,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>374</v>
       </c>
@@ -6030,15 +6043,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>375</v>
       </c>
       <c r="B376">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>376</v>
       </c>
@@ -6046,7 +6059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>377</v>
       </c>
@@ -6054,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>378</v>
       </c>
@@ -6062,7 +6075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>379</v>
       </c>
@@ -6070,7 +6083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>380</v>
       </c>
@@ -6078,7 +6091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>381</v>
       </c>
@@ -6086,7 +6099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>382</v>
       </c>
@@ -6094,7 +6107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>383</v>
       </c>
@@ -6102,7 +6115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>384</v>
       </c>
@@ -6110,15 +6123,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>385</v>
       </c>
       <c r="B386">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>386</v>
       </c>
@@ -6126,23 +6139,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>387</v>
       </c>
       <c r="B388">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>388</v>
       </c>
       <c r="B389">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>389</v>
       </c>
@@ -6150,7 +6163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>390</v>
       </c>
@@ -6158,7 +6171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>391</v>
       </c>
@@ -6166,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>392</v>
       </c>
@@ -6174,7 +6187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>393</v>
       </c>
@@ -6182,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>394</v>
       </c>
@@ -6190,7 +6203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>395</v>
       </c>
@@ -6198,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>396</v>
       </c>
@@ -6206,7 +6219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>397</v>
       </c>
@@ -6214,7 +6227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>398</v>
       </c>
@@ -6222,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>399</v>
       </c>
@@ -6230,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>400</v>
       </c>
@@ -6238,7 +6251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>401</v>
       </c>
@@ -6246,7 +6259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>402</v>
       </c>
@@ -6254,7 +6267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>403</v>
       </c>
@@ -6262,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>404</v>
       </c>
@@ -6270,7 +6283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>405</v>
       </c>
@@ -6278,7 +6291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>406</v>
       </c>
@@ -6286,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>407</v>
       </c>
@@ -6294,7 +6307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>408</v>
       </c>
@@ -6302,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>409</v>
       </c>
@@ -6310,7 +6323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>410</v>
       </c>
@@ -6318,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>411</v>
       </c>
@@ -6326,7 +6339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>412</v>
       </c>
@@ -6334,15 +6347,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>413</v>
       </c>
       <c r="B414">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>414</v>
       </c>
@@ -6350,7 +6363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>415</v>
       </c>
@@ -6358,7 +6371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>416</v>
       </c>
@@ -6366,7 +6379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>417</v>
       </c>
@@ -6374,7 +6387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>418</v>
       </c>
@@ -6382,7 +6395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>419</v>
       </c>
@@ -6390,7 +6403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>420</v>
       </c>
@@ -6398,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>421</v>
       </c>
@@ -6406,7 +6419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>422</v>
       </c>
@@ -6414,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>423</v>
       </c>
@@ -6422,7 +6435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>424</v>
       </c>
@@ -6430,7 +6443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>425</v>
       </c>
@@ -6438,15 +6451,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>426</v>
       </c>
       <c r="B427">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>427</v>
       </c>
@@ -6454,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>428</v>
       </c>
@@ -6462,7 +6475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>429</v>
       </c>
@@ -6470,7 +6483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>430</v>
       </c>
@@ -6478,7 +6491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>431</v>
       </c>
@@ -6486,7 +6499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>432</v>
       </c>
@@ -6494,7 +6507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>433</v>
       </c>
@@ -6502,7 +6515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>434</v>
       </c>
@@ -6510,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>435</v>
       </c>
@@ -6518,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>436</v>
       </c>
@@ -6526,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>437</v>
       </c>
@@ -6534,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>438</v>
       </c>
@@ -6542,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>439</v>
       </c>
@@ -6550,15 +6563,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>440</v>
       </c>
       <c r="B441">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>441</v>
       </c>
@@ -6566,7 +6579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>442</v>
       </c>
@@ -6574,7 +6587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>443</v>
       </c>
@@ -6582,7 +6595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>444</v>
       </c>
@@ -6590,7 +6603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>445</v>
       </c>
@@ -6598,7 +6611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>446</v>
       </c>
@@ -6606,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>447</v>
       </c>
@@ -6614,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>448</v>
       </c>
@@ -6622,7 +6635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>449</v>
       </c>
@@ -6630,7 +6643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>450</v>
       </c>
@@ -6638,7 +6651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>451</v>
       </c>
@@ -6646,7 +6659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>452</v>
       </c>
@@ -6654,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>453</v>
       </c>
@@ -6662,7 +6675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>454</v>
       </c>
@@ -6670,15 +6683,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>455</v>
       </c>
       <c r="B456">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>456</v>
       </c>
@@ -6686,7 +6699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>457</v>
       </c>
@@ -6694,7 +6707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>458</v>
       </c>
@@ -6702,15 +6715,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>459</v>
       </c>
       <c r="B460">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>460</v>
       </c>
@@ -6718,15 +6731,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>461</v>
       </c>
       <c r="B462">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>462</v>
       </c>
@@ -6734,7 +6747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>463</v>
       </c>
@@ -6742,15 +6755,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>464</v>
       </c>
       <c r="B465">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>465</v>
       </c>
@@ -6758,7 +6771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>466</v>
       </c>
@@ -6766,15 +6779,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>467</v>
       </c>
       <c r="B468">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>468</v>
       </c>
@@ -6782,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>469</v>
       </c>
@@ -6790,7 +6803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>470</v>
       </c>
@@ -6798,7 +6811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>471</v>
       </c>
@@ -6806,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>472</v>
       </c>
@@ -6814,7 +6827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>473</v>
       </c>
@@ -6822,15 +6835,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>474</v>
       </c>
       <c r="B475">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>475</v>
       </c>
@@ -6838,7 +6851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>476</v>
       </c>
@@ -6846,23 +6859,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>477</v>
       </c>
       <c r="B478">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>478</v>
       </c>
       <c r="B479">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>479</v>
       </c>
@@ -6870,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>480</v>
       </c>
@@ -6878,7 +6891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>481</v>
       </c>
@@ -6886,7 +6899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>482</v>
       </c>
@@ -6894,7 +6907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>483</v>
       </c>
@@ -6902,7 +6915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>484</v>
       </c>
@@ -6910,15 +6923,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>485</v>
       </c>
       <c r="B486">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>486</v>
       </c>
@@ -6926,7 +6939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>487</v>
       </c>
@@ -6934,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>488</v>
       </c>
@@ -6942,7 +6955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>489</v>
       </c>
@@ -6950,7 +6963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>490</v>
       </c>
@@ -6958,7 +6971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>491</v>
       </c>
@@ -6966,7 +6979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>492</v>
       </c>
@@ -6974,23 +6987,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>493</v>
       </c>
       <c r="B494">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>494</v>
       </c>
       <c r="B495">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" ht="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
         <v>495</v>
       </c>
@@ -6998,7 +7011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>496</v>
       </c>
@@ -7006,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:2">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>497</v>
       </c>
@@ -7014,15 +7027,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>498</v>
       </c>
       <c r="B499">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>499</v>
       </c>
@@ -7030,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:2">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>500</v>
       </c>
@@ -7048,23 +7061,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G251"/>
   <sheetViews>
-    <sheetView topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="B255" sqref="B255"/>
+    <sheetView topLeftCell="B230" workbookViewId="0">
+      <selection activeCell="B251" sqref="B251"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="16384" max="16384" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>502</v>
       </c>
@@ -7072,7 +7085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>503</v>
       </c>
@@ -7080,7 +7093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>504</v>
       </c>
@@ -7088,7 +7101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>505</v>
       </c>
@@ -7096,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>506</v>
       </c>
@@ -7104,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>507</v>
       </c>
@@ -7112,7 +7125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>508</v>
       </c>
@@ -7120,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>509</v>
       </c>
@@ -7128,7 +7141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>510</v>
       </c>
@@ -7136,7 +7149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>511</v>
       </c>
@@ -7144,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>512</v>
       </c>
@@ -7152,7 +7165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>513</v>
       </c>
@@ -7160,7 +7173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>514</v>
       </c>
@@ -7168,15 +7181,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>515</v>
       </c>
       <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>516</v>
       </c>
@@ -7184,7 +7197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>517</v>
       </c>
@@ -7192,15 +7205,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>518</v>
       </c>
       <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>519</v>
       </c>
@@ -7208,7 +7221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>520</v>
       </c>
@@ -7216,7 +7229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>521</v>
       </c>
@@ -7224,15 +7237,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>522</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>523</v>
       </c>
@@ -7243,7 +7256,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>525</v>
       </c>
@@ -7251,15 +7264,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>526</v>
       </c>
       <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>527</v>
       </c>
@@ -7267,7 +7280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>528</v>
       </c>
@@ -7275,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>529</v>
       </c>
@@ -7283,7 +7296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>530</v>
       </c>
@@ -7291,7 +7304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>531</v>
       </c>
@@ -7299,7 +7312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>532</v>
       </c>
@@ -7307,7 +7320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>533</v>
       </c>
@@ -7315,7 +7328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>534</v>
       </c>
@@ -7323,7 +7336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>535</v>
       </c>
@@ -7331,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>536</v>
       </c>
@@ -7339,7 +7352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>537</v>
       </c>
@@ -7347,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>538</v>
       </c>
@@ -7355,7 +7368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>539</v>
       </c>
@@ -7363,7 +7376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>540</v>
       </c>
@@ -7371,7 +7384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>541</v>
       </c>
@@ -7379,7 +7392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>542</v>
       </c>
@@ -7387,15 +7400,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>543</v>
       </c>
       <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>544</v>
       </c>
@@ -7403,7 +7416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>545</v>
       </c>
@@ -7411,23 +7424,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>546</v>
       </c>
       <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>547</v>
       </c>
       <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>548</v>
       </c>
@@ -7435,15 +7448,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>549</v>
       </c>
       <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>550</v>
       </c>
@@ -7451,7 +7464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>551</v>
       </c>
@@ -7459,7 +7472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>552</v>
       </c>
@@ -7467,15 +7480,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>553</v>
       </c>
       <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>554</v>
       </c>
@@ -7483,7 +7496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>555</v>
       </c>
@@ -7491,23 +7504,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>556</v>
       </c>
       <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>557</v>
       </c>
       <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>558</v>
       </c>
@@ -7515,7 +7528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>559</v>
       </c>
@@ -7523,7 +7536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>560</v>
       </c>
@@ -7531,7 +7544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>561</v>
       </c>
@@ -7539,15 +7552,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>562</v>
       </c>
       <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>563</v>
       </c>
@@ -7555,7 +7568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>564</v>
       </c>
@@ -7563,7 +7576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>565</v>
       </c>
@@ -7571,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>566</v>
       </c>
@@ -7579,7 +7592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>567</v>
       </c>
@@ -7587,7 +7600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>568</v>
       </c>
@@ -7595,7 +7608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>569</v>
       </c>
@@ -7603,15 +7616,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>570</v>
       </c>
       <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>571</v>
       </c>
@@ -7619,15 +7632,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>572</v>
       </c>
       <c r="B71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>573</v>
       </c>
@@ -7635,7 +7648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>574</v>
       </c>
@@ -7643,7 +7656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>575</v>
       </c>
@@ -7651,7 +7664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>576</v>
       </c>
@@ -7659,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>577</v>
       </c>
@@ -7667,7 +7680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>578</v>
       </c>
@@ -7675,7 +7688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>579</v>
       </c>
@@ -7683,15 +7696,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>580</v>
       </c>
       <c r="B79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>581</v>
       </c>
@@ -7699,7 +7712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>582</v>
       </c>
@@ -7707,7 +7720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>583</v>
       </c>
@@ -7715,7 +7728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>584</v>
       </c>
@@ -7723,7 +7736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>585</v>
       </c>
@@ -7731,7 +7744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>586</v>
       </c>
@@ -7739,7 +7752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>587</v>
       </c>
@@ -7747,7 +7760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>588</v>
       </c>
@@ -7755,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>589</v>
       </c>
@@ -7763,7 +7776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>590</v>
       </c>
@@ -7771,7 +7784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>591</v>
       </c>
@@ -7779,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>592</v>
       </c>
@@ -7787,15 +7800,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>593</v>
       </c>
       <c r="B92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>594</v>
       </c>
@@ -7803,15 +7816,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>595</v>
       </c>
       <c r="B94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>596</v>
       </c>
@@ -7819,15 +7832,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>597</v>
       </c>
       <c r="B96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>598</v>
       </c>
@@ -7835,7 +7848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>599</v>
       </c>
@@ -7843,7 +7856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>600</v>
       </c>
@@ -7851,7 +7864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>601</v>
       </c>
@@ -7859,7 +7872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>602</v>
       </c>
@@ -7867,7 +7880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>603</v>
       </c>
@@ -7875,7 +7888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>604</v>
       </c>
@@ -7883,7 +7896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>605</v>
       </c>
@@ -7891,7 +7904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>606</v>
       </c>
@@ -7899,7 +7912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>607</v>
       </c>
@@ -7907,7 +7920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>608</v>
       </c>
@@ -7915,7 +7928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>609</v>
       </c>
@@ -7923,15 +7936,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>610</v>
       </c>
       <c r="B109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>611</v>
       </c>
@@ -7939,7 +7952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>612</v>
       </c>
@@ -7947,15 +7960,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>613</v>
       </c>
       <c r="B112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>614</v>
       </c>
@@ -7963,7 +7976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>615</v>
       </c>
@@ -7971,7 +7984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>616</v>
       </c>
@@ -7979,15 +7992,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>617</v>
       </c>
       <c r="B116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>618</v>
       </c>
@@ -7995,7 +8008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>619</v>
       </c>
@@ -8003,7 +8016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>620</v>
       </c>
@@ -8011,23 +8024,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>621</v>
       </c>
       <c r="B120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>622</v>
       </c>
       <c r="B121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>623</v>
       </c>
@@ -8035,7 +8048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>624</v>
       </c>
@@ -8043,15 +8056,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>625</v>
       </c>
       <c r="B124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>626</v>
       </c>
@@ -8059,7 +8072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>627</v>
       </c>
@@ -8067,15 +8080,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>628</v>
       </c>
       <c r="B127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>629</v>
       </c>
@@ -8083,7 +8096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>630</v>
       </c>
@@ -8091,7 +8104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>631</v>
       </c>
@@ -8099,7 +8112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>632</v>
       </c>
@@ -8107,7 +8120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>633</v>
       </c>
@@ -8115,7 +8128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>634</v>
       </c>
@@ -8123,7 +8136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>635</v>
       </c>
@@ -8131,7 +8144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>636</v>
       </c>
@@ -8139,7 +8152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>637</v>
       </c>
@@ -8147,7 +8160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>638</v>
       </c>
@@ -8155,15 +8168,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>639</v>
       </c>
       <c r="B138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>640</v>
       </c>
@@ -8171,7 +8184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>641</v>
       </c>
@@ -8179,15 +8192,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>642</v>
       </c>
       <c r="B141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>643</v>
       </c>
@@ -8195,7 +8208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>644</v>
       </c>
@@ -8203,7 +8216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>645</v>
       </c>
@@ -8211,7 +8224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>646</v>
       </c>
@@ -8219,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>647</v>
       </c>
@@ -8227,7 +8240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>648</v>
       </c>
@@ -8235,7 +8248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>649</v>
       </c>
@@ -8243,7 +8256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>650</v>
       </c>
@@ -8251,7 +8264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>651</v>
       </c>
@@ -8259,7 +8272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>652</v>
       </c>
@@ -8267,7 +8280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>653</v>
       </c>
@@ -8275,7 +8288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>654</v>
       </c>
@@ -8283,7 +8296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>655</v>
       </c>
@@ -8291,7 +8304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>656</v>
       </c>
@@ -8299,15 +8312,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>657</v>
       </c>
       <c r="B156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>658</v>
       </c>
@@ -8315,7 +8328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>659</v>
       </c>
@@ -8323,7 +8336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>660</v>
       </c>
@@ -8331,7 +8344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>661</v>
       </c>
@@ -8339,23 +8352,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>662</v>
       </c>
       <c r="B161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>663</v>
       </c>
       <c r="B162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>664</v>
       </c>
@@ -8363,7 +8376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>665</v>
       </c>
@@ -8371,7 +8384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>666</v>
       </c>
@@ -8379,15 +8392,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>667</v>
       </c>
       <c r="B166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>668</v>
       </c>
@@ -8395,7 +8408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>669</v>
       </c>
@@ -8403,7 +8416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>670</v>
       </c>
@@ -8411,7 +8424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>671</v>
       </c>
@@ -8419,7 +8432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>672</v>
       </c>
@@ -8427,7 +8440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>673</v>
       </c>
@@ -8435,7 +8448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>674</v>
       </c>
@@ -8443,7 +8456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>675</v>
       </c>
@@ -8451,7 +8464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>676</v>
       </c>
@@ -8459,7 +8472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>677</v>
       </c>
@@ -8467,7 +8480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>678</v>
       </c>
@@ -8475,7 +8488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>679</v>
       </c>
@@ -8483,7 +8496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>680</v>
       </c>
@@ -8491,7 +8504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>681</v>
       </c>
@@ -8499,7 +8512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>682</v>
       </c>
@@ -8507,7 +8520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>683</v>
       </c>
@@ -8515,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>684</v>
       </c>
@@ -8523,7 +8536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>685</v>
       </c>
@@ -8531,7 +8544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>686</v>
       </c>
@@ -8539,7 +8552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>687</v>
       </c>
@@ -8547,7 +8560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>688</v>
       </c>
@@ -8555,15 +8568,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>689</v>
       </c>
       <c r="B188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>690</v>
       </c>
@@ -8571,7 +8584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>691</v>
       </c>
@@ -8579,7 +8592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>692</v>
       </c>
@@ -8587,7 +8600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>693</v>
       </c>
@@ -8595,7 +8608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>694</v>
       </c>
@@ -8603,7 +8616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>695</v>
       </c>
@@ -8611,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>696</v>
       </c>
@@ -8619,7 +8632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>697</v>
       </c>
@@ -8627,7 +8640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>698</v>
       </c>
@@ -8635,15 +8648,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>699</v>
       </c>
       <c r="B198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>700</v>
       </c>
@@ -8651,7 +8664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>701</v>
       </c>
@@ -8659,7 +8672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>702</v>
       </c>
@@ -8667,7 +8680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>703</v>
       </c>
@@ -8675,15 +8688,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>704</v>
       </c>
       <c r="B203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>705</v>
       </c>
@@ -8691,7 +8704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>706</v>
       </c>
@@ -8699,7 +8712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>707</v>
       </c>
@@ -8707,7 +8720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>708</v>
       </c>
@@ -8715,7 +8728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>709</v>
       </c>
@@ -8723,7 +8736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>710</v>
       </c>
@@ -8731,7 +8744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>711</v>
       </c>
@@ -8739,7 +8752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>712</v>
       </c>
@@ -8747,7 +8760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>713</v>
       </c>
@@ -8755,7 +8768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>714</v>
       </c>
@@ -8763,7 +8776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>715</v>
       </c>
@@ -8771,7 +8784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>716</v>
       </c>
@@ -8779,7 +8792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>717</v>
       </c>
@@ -8787,7 +8800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>718</v>
       </c>
@@ -8795,7 +8808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>719</v>
       </c>
@@ -8803,7 +8816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>720</v>
       </c>
@@ -8811,7 +8824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>721</v>
       </c>
@@ -8819,7 +8832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>722</v>
       </c>
@@ -8827,7 +8840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>723</v>
       </c>
@@ -8835,7 +8848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>724</v>
       </c>
@@ -8843,7 +8856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>725</v>
       </c>
@@ -8851,7 +8864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>726</v>
       </c>
@@ -8859,7 +8872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>727</v>
       </c>
@@ -8867,7 +8880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>728</v>
       </c>
@@ -8875,7 +8888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>729</v>
       </c>
@@ -8883,7 +8896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>730</v>
       </c>
@@ -8891,23 +8904,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>731</v>
       </c>
       <c r="B230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>732</v>
       </c>
       <c r="B231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>733</v>
       </c>
@@ -8915,7 +8928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>734</v>
       </c>
@@ -8923,7 +8936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>735</v>
       </c>
@@ -8931,7 +8944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>736</v>
       </c>
@@ -8939,7 +8952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>737</v>
       </c>
@@ -8947,7 +8960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>738</v>
       </c>
@@ -8955,7 +8968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>739</v>
       </c>
@@ -8963,15 +8976,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>740</v>
       </c>
       <c r="B239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>741</v>
       </c>
@@ -8979,7 +8992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>742</v>
       </c>
@@ -8987,7 +9000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>743</v>
       </c>
@@ -8995,7 +9008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>744</v>
       </c>
@@ -9003,15 +9016,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>745</v>
       </c>
       <c r="B244">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>746</v>
       </c>
@@ -9019,15 +9032,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>747</v>
       </c>
       <c r="B246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>748</v>
       </c>
@@ -9035,15 +9048,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>749</v>
       </c>
       <c r="B248">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>750</v>
       </c>
@@ -9051,7 +9064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>751</v>
       </c>
@@ -9059,11 +9072,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>752</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="4">
         <v>1</v>
       </c>
     </row>
@@ -9072,5 +9085,6 @@
     <hyperlink ref="A37" r:id="rId1" location="apexlegends%20%20right%20now%20@twitch.tv/mattzomb%20_x000a_#apexlegends%20#apexlegendscommunity%20#streamer%20#twitch%20#discord%20#xbox%20#consolelife%20#callofdutyclips%20#callofduty%20#callofdutycoldwar%20#tiktokgaming%20#tiktok%20#viral%20#fyp%20#twitch%20#fypシ" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>